--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,235 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43939</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43659</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43575</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43295</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43211</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43015</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42931</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42847</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2856500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1999800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1995900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2542400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1896800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1886700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4281000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2385100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1885500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1868400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4209900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2353700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1828200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2432900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1711200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1709400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1706900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2164600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1651400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1630600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3672200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2041900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1630700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1606700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3581500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1996300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1568900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>423600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>286800</v>
+      </c>
+      <c r="F10" s="3">
         <v>290400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>289000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>377800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>245400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>256100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>608800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>343200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>254800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>261700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>628400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>357400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>259300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +910,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +956,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,52 +1006,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
-        <v>15200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-4900</v>
-      </c>
       <c r="G14" s="3">
-        <v>33700</v>
+        <v>15100</v>
       </c>
       <c r="H14" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="I14" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>900</v>
+      </c>
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>8400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>4300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>227000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>11400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1106,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1127,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2834400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1986400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1984400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1988600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2520200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1908700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1859900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4225500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2359300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1867100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2062300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4141500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2324100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1803800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F18" s="3">
         <v>15400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>22200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>55500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>25800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>18400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-193900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>68400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>29600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>24400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1247,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
       <c r="I20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F21" s="3">
         <v>26500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>20100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>49400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>46600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>51500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>36700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-173800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>115100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>55600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>43200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F22" s="3">
         <v>7400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>8700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>11900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>15700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>10100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-19500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>19900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>40300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>17200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-199900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>55800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>22400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>20100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-76400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>19600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1543,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>17100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>30300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-123500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>36100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>15100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>29600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-121400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>35600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>14800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>12600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,52 +1693,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K29" s="3">
-        <v>25900</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
       <c r="M29" s="3">
+        <v>25900</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1793,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1843,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
       <c r="I32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>29500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>34000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-121400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>35500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>14700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>12600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1993,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>29500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>34000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-121400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>35500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>14700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>12600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43939</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43659</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43575</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43295</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43211</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43015</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42931</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42847</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2122,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2142,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>18600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>20700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>22700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>19500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>24400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,184 +2238,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>417700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>345300</v>
+      </c>
+      <c r="F43" s="3">
         <v>374300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>362600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>376700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>346300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>364000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>355100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>330300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>344100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>370500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>349300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>342400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>291600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>516500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>537200</v>
+      </c>
+      <c r="F44" s="3">
         <v>594700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>572700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>595700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>553800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>592200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>562400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>577500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>597200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>598500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>555600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>539900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>539900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F45" s="3">
         <v>56100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>43200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>59000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>82500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>52000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>52400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>60200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>47400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>33400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>32900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>42900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>37700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1048300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>996700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1048500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>998500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1052800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1001100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1028800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>985800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>985200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1004300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1015600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>960500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>944700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>893500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2278,96 +2488,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>853600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>884800</v>
+      </c>
+      <c r="F48" s="3">
         <v>890700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>893900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>896700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>579100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>577300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>581800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>582400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>588400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>621600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>628000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>559700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>309700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>311500</v>
+      </c>
+      <c r="F49" s="3">
         <v>309400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>310200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>323100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>307600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>308900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>309800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>311200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>313100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>314000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>496700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>498900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>322700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2638,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2688,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>82700</v>
+      </c>
+      <c r="F52" s="3">
         <v>85900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>89400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>86900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>84200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>139100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>133400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>138100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>138200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>115800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>119800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>109000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>154400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2788,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2314200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2275600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2334500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2292000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2359500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1971900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2054000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2010800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2016900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2055800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2033800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2198500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2180600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1930300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2862,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2882,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>509200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>405400</v>
+      </c>
+      <c r="F57" s="3">
         <v>457000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>406900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>391300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>357800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>411400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>364700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>356500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>377000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>440600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>394300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>370700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>372400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>17700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>18000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>18300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>19400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>19000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>17400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>17400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>153400</v>
+      </c>
+      <c r="F59" s="3">
         <v>146900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>143100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>145800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>98600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>105900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>108400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>101500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>101400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>116100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>679400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>565100</v>
+      </c>
+      <c r="F60" s="3">
         <v>611000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>567800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>555100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>476500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>518100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>478400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>464500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>494600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>560000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>514800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>489500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>506000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>591100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>682200</v>
+      </c>
+      <c r="F61" s="3">
         <v>686100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>684500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>753100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>679800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>694900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>702900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>733400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>740800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>651500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>641300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>658300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>413700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>340700</v>
+      </c>
+      <c r="F62" s="3">
         <v>348200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>352000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>357500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>99700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>104700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>105100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>107000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>98500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>116300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>193400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>191400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>185300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3228,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3278,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3328,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1628500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1588100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1645300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1604300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1665700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1256000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1317700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1286300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1304900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1333800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1327800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1349500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1339200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1104900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3402,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3448,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3498,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3548,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3598,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>198900</v>
+      </c>
+      <c r="F72" s="3">
         <v>200400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>207600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>221300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>247600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>268100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>257100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>245800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>240000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>208800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>338400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>323600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>314900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3698,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3748,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3798,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>685700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>687500</v>
+      </c>
+      <c r="F76" s="3">
         <v>689300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>687600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>693800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>715900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>736400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>724500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>712000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>722000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>706000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>849100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>841500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>825400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3898,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43939</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43659</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43575</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43295</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43211</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43015</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42931</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42847</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>29500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>34000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-121400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>35500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>14700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>12600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +4027,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F83" s="3">
         <v>21100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>27400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>19700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>19600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>44900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>25600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>18000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>20000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>46400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>25900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>18700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +4123,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +4173,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4223,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4273,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4323,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F89" s="3">
         <v>36200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>90300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>13400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>29100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>38200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>104200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>60300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-18800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>33100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>38400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>75700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4397,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-34600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-21000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-17500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-37800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-32400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4493,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4543,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-87200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-20900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-38200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-29400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-247800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-232900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-15700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4617,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6900</v>
+        <v>-13900</v>
       </c>
       <c r="E96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-6900</v>
       </c>
       <c r="G96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-13000</v>
       </c>
       <c r="J96" s="3">
         <v>-6500</v>
       </c>
       <c r="K96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-6100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-12500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-6300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-5600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4713,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4763,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4813,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-118300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-17700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-76300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>76600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-12500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-16000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-75800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-37900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>59600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-13400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>207800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>238300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-62000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,48 +4913,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44023</v>
+      </c>
+      <c r="E7" s="2">
         <v>43939</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43659</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43575</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43295</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43211</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43015</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42931</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42847</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2184100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2856500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1998000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1999800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1995900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2542400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1896800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1886700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4281000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2385100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1885500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1868400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4209900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2353700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1828200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1845700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2432900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1711200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1709400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1706900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2164600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1651400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1630600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3672200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2041900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1630700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1606700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3581500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1996300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1568900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>338400</v>
+      </c>
+      <c r="E10" s="3">
         <v>423600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>286800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>290400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>289000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>377800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>245400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>256100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>608800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>343200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>254800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>261700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>628400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>357400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>259300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,58 +1029,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E14" s="3">
         <v>10300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>227000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2150100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2834400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1986400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1984400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1988600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2520200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1908700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1859900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4225500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2359300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1867100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2062300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4141500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2324100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1803800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E18" s="3">
         <v>22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>55500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-193900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E21" s="3">
         <v>51100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>32700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>49400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>46600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-173800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>55600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4400</v>
       </c>
       <c r="R22" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E23" s="3">
         <v>15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-199900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-76400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E26" s="3">
         <v>15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-123500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E27" s="3">
         <v>15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-121400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,16 +1757,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1717,40 +1778,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>25900</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-100</v>
       </c>
       <c r="O29" s="3">
         <v>-100</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E33" s="3">
         <v>15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-121400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E35" s="3">
         <v>15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-121400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44023</v>
+      </c>
+      <c r="E38" s="2">
         <v>43939</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43659</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43575</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43295</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43211</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43015</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42931</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42847</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E41" s="3">
         <v>21300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,208 +2334,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>374400</v>
+      </c>
+      <c r="E43" s="3">
         <v>417700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>345300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>374300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>362600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>376700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>346300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>364000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>355100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>330300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>344100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>370500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>349300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>342400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>291600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>552400</v>
+      </c>
+      <c r="E44" s="3">
         <v>516500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>537200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>594700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>572700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>595700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>553800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>592200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>562400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>577500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>597200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>598500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>555600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>539900</v>
       </c>
       <c r="Q44" s="3">
         <v>539900</v>
       </c>
       <c r="R44" s="3">
+        <v>539900</v>
+      </c>
+      <c r="S44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E45" s="3">
         <v>92800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>90000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>52000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>37700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1058700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1048300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>996700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1048500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>998500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1052800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1001100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1028800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>985800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>985200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1004300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1015600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>960500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>944700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>893500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2494,108 +2599,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>829600</v>
+      </c>
+      <c r="E48" s="3">
         <v>853600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>884800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>890700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>893900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>896700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>579100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>577300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>581800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>582400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>588400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>621600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>628000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>559700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>308400</v>
+      </c>
+      <c r="E49" s="3">
         <v>309700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>311500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>309400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>310200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>323100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>307600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>308900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>309800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>311200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>313100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>314000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>496700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>498900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>322700</v>
       </c>
       <c r="R49" s="3">
         <v>322700</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>322700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E52" s="3">
         <v>102700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>89400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>86900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>84200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>139100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>138100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>138200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>115800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>119800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>109000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>154400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2296500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2314200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2275600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2334500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2292000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2359500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1971900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2054000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2010800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2016900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2055800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2033800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2198500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2180600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1930300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E57" s="3">
         <v>509200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>405400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>457000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>406900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>391300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>357800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>411400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>364700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>356500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>377000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>440600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>394300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>370700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>372400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>17400</v>
       </c>
       <c r="Q58" s="3">
         <v>17400</v>
       </c>
       <c r="R58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="S58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E59" s="3">
         <v>164100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>153400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>146900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>143100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>145800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>98600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>105900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>108400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>116100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>677400</v>
+      </c>
+      <c r="E60" s="3">
         <v>679400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>565100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>611000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>567800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>555100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>476500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>518100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>478400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>464500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>494600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>560000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>514800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>489500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>506000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>552200</v>
+      </c>
+      <c r="E61" s="3">
         <v>591100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>682200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>686100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>684500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>753100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>679800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>694900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>702900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>733400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>740800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>651500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>641300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>658300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>413700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>357700</v>
+      </c>
+      <c r="E62" s="3">
         <v>358000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>340700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>348200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>352000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>357500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>99700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>104700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>105100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>107000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>98500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>116300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>193400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>191400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>185300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1587300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1628500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1588100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1645300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1604300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1665700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1256000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1317700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1286300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1304900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1333800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1327800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1349500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1339200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1104900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>227300</v>
+      </c>
+      <c r="E72" s="3">
         <v>205700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>198900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>200400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>207600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>221300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>247600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>268100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>257100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>245800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>240000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>208800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>338400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>323600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>314900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>709300</v>
+      </c>
+      <c r="E76" s="3">
         <v>685700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>687500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>689300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>687600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>693800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>715900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>736400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>724500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>712000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>722000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>706000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>849100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>841500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>825400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44023</v>
+      </c>
+      <c r="E80" s="2">
         <v>43939</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43659</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43575</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43295</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43211</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43015</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42931</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42847</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E81" s="3">
         <v>15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-121400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E83" s="3">
         <v>28000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>21100</v>
       </c>
       <c r="G83" s="3">
         <v>21100</v>
       </c>
       <c r="H83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="I83" s="3">
         <v>27400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E89" s="3">
         <v>129300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>90300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>75700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-87200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-247800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-232900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,19 +4852,20 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-6900</v>
@@ -4640,37 +4874,40 @@
         <v>-6900</v>
       </c>
       <c r="I96" s="3">
-        <v>-6500</v>
+        <v>-6900</v>
       </c>
       <c r="J96" s="3">
         <v>-6500</v>
       </c>
       <c r="K96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-13000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-6100</v>
       </c>
       <c r="N96" s="3">
         <v>-6100</v>
       </c>
       <c r="O96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-6300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-5600</v>
       </c>
       <c r="R96" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,58 +5062,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-118300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-76300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>76600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-75800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>59600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>207800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>238300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4919,54 +5168,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44023</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43939</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43659</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43575</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43295</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43211</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43015</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42931</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42847</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2184100</v>
+        <v>2060800</v>
       </c>
       <c r="E8" s="3">
+        <v>5040600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2856500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1998000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1999800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1995900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2542400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1896800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1886700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4281000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2385100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1885500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1868400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4209900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2353700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1828200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1845700</v>
+        <v>1736000</v>
       </c>
       <c r="E9" s="3">
+        <v>4278600</v>
+      </c>
+      <c r="F9" s="3">
         <v>2432900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1711200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1709400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1706900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2164600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1651400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1630600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3672200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2041900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1630700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1606700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3581500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1996300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1568900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>338400</v>
+        <v>324800</v>
       </c>
       <c r="E10" s="3">
+        <v>762000</v>
+      </c>
+      <c r="F10" s="3">
         <v>423600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>286800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>290400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>289000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>377800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>245400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>256100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>608800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>343200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>254800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>261700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>628400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>357400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>259300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,61 +1049,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3600</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F14" s="3">
         <v>10300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>227000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2150100</v>
+        <v>2031800</v>
       </c>
       <c r="E17" s="3">
+        <v>4984600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2834400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1986400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1984400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1988600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2520200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1908700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1859900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4225500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2359300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1867100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2062300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4141500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2324100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1803800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="E18" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F18" s="3">
         <v>22100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>55500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-193900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,8 +1316,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,264 +1326,279 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>54100</v>
+        <v>49900</v>
       </c>
       <c r="E21" s="3">
+        <v>105200</v>
+      </c>
+      <c r="F21" s="3">
         <v>51100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>49400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>46600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-173800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>115100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>55600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F22" s="3">
         <v>7600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4400</v>
       </c>
       <c r="S22" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30400</v>
+        <v>25500</v>
       </c>
       <c r="E23" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F23" s="3">
         <v>15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-199900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-76400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28500</v>
+        <v>20000</v>
       </c>
       <c r="E26" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F26" s="3">
         <v>15400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-123500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27800</v>
+        <v>19500</v>
       </c>
       <c r="E27" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F27" s="3">
         <v>15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>29600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-121400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,20 +1818,23 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1781,40 +1842,43 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>25900</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-100</v>
       </c>
       <c r="P29" s="3">
         <v>-100</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,8 +1986,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1928,105 +1998,111 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27800</v>
+        <v>19500</v>
       </c>
       <c r="E33" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F33" s="3">
         <v>15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-121400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27800</v>
+        <v>19500</v>
       </c>
       <c r="E35" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F35" s="3">
         <v>15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-121400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44023</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43939</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43659</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43575</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43295</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43211</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43015</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42931</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42847</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,61 +2317,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E41" s="3">
         <v>34600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,220 +2427,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>387100</v>
+      </c>
+      <c r="E43" s="3">
         <v>374400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>417700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>345300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>374300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>362600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>376700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>346300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>364000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>355100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>330300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>344100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>370500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>349300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>342400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>291600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>586400</v>
+      </c>
+      <c r="E44" s="3">
         <v>552400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>516500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>537200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>594700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>572700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>595700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>553800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>592200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>562400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>577500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>597200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>598500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>555600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>539900</v>
       </c>
       <c r="R44" s="3">
         <v>539900</v>
       </c>
       <c r="S44" s="3">
+        <v>539900</v>
+      </c>
+      <c r="T44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E45" s="3">
         <v>97300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>92800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>90000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>59000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>37700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1095500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1058700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1048300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>996700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1048500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>998500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1052800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1001100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1028800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>985800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>985200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1004300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1015600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>960500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>944700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>893500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2602,114 +2707,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>831400</v>
+      </c>
+      <c r="E48" s="3">
         <v>829600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>853600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>884800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>890700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>893900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>896700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>579100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>577300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>581800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>582400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>588400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>621600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>628000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>559700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E49" s="3">
         <v>308400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>309700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>311500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>309400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>310200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>323100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>307600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>308900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>309800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>311200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>313100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>314000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>496700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>498900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>322700</v>
       </c>
       <c r="S49" s="3">
         <v>322700</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>322700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E52" s="3">
         <v>99900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>85900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>89400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>84200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>139100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>133400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>138100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>138200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>115800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>119800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>109000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>154400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2321600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2296500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2314200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2275600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2334500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2292000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2359500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1971900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2054000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2010800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2016900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2055800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2033800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2198500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2180600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1930300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>501100</v>
+      </c>
+      <c r="E57" s="3">
         <v>489400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>509200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>405400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>457000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>406900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>391300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>357800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>411400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>364700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>356500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>377000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>440600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>394300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>370700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>372400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>17400</v>
       </c>
       <c r="R58" s="3">
         <v>17400</v>
       </c>
       <c r="S58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="T58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E59" s="3">
         <v>182500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>164100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>153400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>146900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>143100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>145800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>105900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>108400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>116100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>694600</v>
+      </c>
+      <c r="E60" s="3">
         <v>677400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>679400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>565100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>611000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>567800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>555100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>476500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>518100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>478400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>464500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>494600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>560000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>514800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>489500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>506000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>540900</v>
+      </c>
+      <c r="E61" s="3">
         <v>552200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>591100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>682200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>686100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>684500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>753100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>679800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>694900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>702900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>733400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>740800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>651500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>641300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>658300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>413700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>362600</v>
+      </c>
+      <c r="E62" s="3">
         <v>357700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>358000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>340700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>348200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>352000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>357500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>99700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>104700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>105100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>107000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>116300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>193400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>191400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>185300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1598100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1587300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1628500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1588100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1645300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1604300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1665700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1256000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1317700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1286300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1304900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1333800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1327800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1349500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1339200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1104900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E72" s="3">
         <v>227300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>205700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>198900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>200400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>207600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>221300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>247600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>268100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>257100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>245800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>240000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>208800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>338400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>323600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>314900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>723500</v>
+      </c>
+      <c r="E76" s="3">
         <v>709300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>685700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>687500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>689300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>687600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>693800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>715900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>736400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>724500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>712000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>722000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>706000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>849100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>841500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>825400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44023</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43939</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43659</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43575</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43295</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43211</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43015</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42931</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42847</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27800</v>
+        <v>19500</v>
       </c>
       <c r="E81" s="3">
+        <v>42800</v>
+      </c>
+      <c r="F81" s="3">
         <v>15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-121400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="E83" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F83" s="3">
         <v>28000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>21100</v>
       </c>
       <c r="H83" s="3">
         <v>21100</v>
       </c>
       <c r="I83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69000</v>
+        <v>25600</v>
       </c>
       <c r="E89" s="3">
+        <v>198200</v>
+      </c>
+      <c r="F89" s="3">
         <v>129300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>90300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>104200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>75700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12700</v>
+        <v>-15300</v>
       </c>
       <c r="E91" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-17900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7900</v>
+        <v>-13700</v>
       </c>
       <c r="E94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-87200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-247800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-232900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,13 +5096,13 @@
         <v>-6900</v>
       </c>
       <c r="E96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-13900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-6900</v>
@@ -4877,37 +5111,40 @@
         <v>-6900</v>
       </c>
       <c r="J96" s="3">
-        <v>-6500</v>
+        <v>-6900</v>
       </c>
       <c r="K96" s="3">
         <v>-6500</v>
       </c>
       <c r="L96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-13000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-6100</v>
       </c>
       <c r="O96" s="3">
         <v>-6100</v>
       </c>
       <c r="P96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-6300</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-5600</v>
       </c>
       <c r="S96" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,61 +5308,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-47700</v>
+        <v>-19600</v>
       </c>
       <c r="E100" s="3">
+        <v>-165900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-118300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-76300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>76600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-75800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>59600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>207800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>238300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5171,57 +5420,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13400</v>
+        <v>-7700</v>
       </c>
       <c r="E102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,273 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44023</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43939</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43659</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43575</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43295</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43211</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43015</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42931</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42847</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2247100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2060800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5040600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2856500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1998000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1999800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1995900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2542400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1896800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1886700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4281000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2385100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1885500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1868400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4209900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2353700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1828200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1908900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1736000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4278600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2432900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1711200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1709400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1706900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2164600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1651400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1630600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3672200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2041900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1630700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1606700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3581500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1996300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1568900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E10" s="3">
         <v>324800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>762000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>423600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>286800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>290400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>289000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>377800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>245400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>256100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>608800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>343200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>254800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>261700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>628400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>357400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>259300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +952,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,64 +1068,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E14" s="3">
         <v>6800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>227000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1186,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1208,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2229700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2031800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4984600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2834400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1986400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1984400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1988600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2520200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1908700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1859900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4225500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2359300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1867100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2062300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4141500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2324100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1803800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E18" s="3">
         <v>29000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>56000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-193900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,288 +1349,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E21" s="3">
         <v>49900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>105200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>51100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>49400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>46600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-173800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>55600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>4400</v>
       </c>
       <c r="T22" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>25500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-199900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-76400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1701,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E26" s="3">
         <v>20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>43900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-123500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>19500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-121400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1878,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1832,12 +1892,12 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1845,40 +1905,43 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>25900</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-100</v>
       </c>
       <c r="Q29" s="3">
         <v>-100</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1996,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2055,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>19500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-121400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2232,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>19500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-121400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44023</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43939</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43659</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43575</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43295</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43211</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43015</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42931</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42847</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2380,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2403,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E41" s="3">
         <v>26900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,232 +2519,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>357600</v>
+      </c>
+      <c r="E43" s="3">
         <v>387100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>374400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>417700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>345300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>374300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>362600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>376700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>346300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>364000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>355100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>330300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>344100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>370500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>349300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>342400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>291600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>541800</v>
+      </c>
+      <c r="E44" s="3">
         <v>586400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>552400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>516500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>537200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>594700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>572700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>595700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>553800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>592200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>562400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>577500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>597200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>598500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>555600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>539900</v>
       </c>
       <c r="S44" s="3">
         <v>539900</v>
       </c>
       <c r="T44" s="3">
+        <v>539900</v>
+      </c>
+      <c r="U44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E45" s="3">
         <v>95100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>97300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>92800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>90000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>37700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1014700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1095500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1058700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1048300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>996700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1048500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>998500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1052800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1001100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1028800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>985800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>985200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1004300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1015600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>960500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>944700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>893500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2710,120 +2814,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>866200</v>
+      </c>
+      <c r="E48" s="3">
         <v>831400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>829600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>853600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>884800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>890700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>893900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>896700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>579100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>577300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>581800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>582400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>588400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>621600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>628000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>559700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E49" s="3">
         <v>300100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>308400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>309700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>311500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>309400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>310200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>323100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>307600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>308900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>309800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>311200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>313100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>314000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>496700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>498900</v>
-      </c>
-      <c r="S49" s="3">
-        <v>322700</v>
       </c>
       <c r="T49" s="3">
         <v>322700</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>322700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2991,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3050,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E52" s="3">
         <v>94600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>99900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>85900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>89400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>86900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>139100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>133400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>138100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>138200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>115800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>119800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>109000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>154400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3168,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2277400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2321600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2296500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2314200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2275600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2334500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2292000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2359500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1971900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2054000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2010800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2016900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2055800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2033800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2198500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2180600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1930300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3252,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3275,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>464800</v>
+      </c>
+      <c r="E57" s="3">
         <v>501100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>489400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>509200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>405400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>457000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>406900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>391300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>357800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>411400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>364700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>356500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>377000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>440600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>394300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>370700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>372400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>17400</v>
       </c>
       <c r="S58" s="3">
         <v>17400</v>
       </c>
       <c r="T58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="U58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>219600</v>
+      </c>
+      <c r="E59" s="3">
         <v>188100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>182500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>164100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>153400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>146900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>143100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>145800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>105900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>108400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>116100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>689600</v>
+      </c>
+      <c r="E60" s="3">
         <v>694600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>677400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>679400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>565100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>611000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>567800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>555100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>476500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>518100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>478400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>464500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>494600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>560000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>514800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>489500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>506000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>481300</v>
+      </c>
+      <c r="E61" s="3">
         <v>540900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>552200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>591100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>682200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>686100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>684500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>753100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>679800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>694900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>702900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>733400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>740800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>651500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>641300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>658300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>413700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>371500</v>
+      </c>
+      <c r="E62" s="3">
         <v>362600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>357700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>358000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>340700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>348200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>352000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>357500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>99700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>104700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>105100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>107000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>98500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>116300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>193400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>191400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>185300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3686,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3745,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3804,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1598100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1587300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1628500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1588100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1645300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1604300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1665700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1256000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1317700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1286300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1304900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1333800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1327800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1349500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1339200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1104900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3888,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3945,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4004,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4063,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4122,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>245500</v>
+      </c>
+      <c r="E72" s="3">
         <v>240300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>227300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>205700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>198900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>200400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>207600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>221300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>247600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>268100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>257100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>245800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>240000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>208800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>338400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>323600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>314900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4240,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4299,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4358,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E76" s="3">
         <v>723500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>709300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>685700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>687500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>689300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>687600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>693800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>715900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>736400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>724500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>712000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>722000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>706000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>849100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>841500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>825400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4476,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44023</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43939</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43659</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43575</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43295</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43211</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43015</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42931</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42847</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>19500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-121400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,8 +4624,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4436,55 +4634,58 @@
         <v>20900</v>
       </c>
       <c r="E83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F83" s="3">
         <v>48100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>21100</v>
       </c>
       <c r="I83" s="3">
         <v>21100</v>
       </c>
       <c r="J83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K83" s="3">
         <v>27400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4740,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4799,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4858,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4917,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4976,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E89" s="3">
         <v>25600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>198200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>129300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>90300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>60300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>75700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5060,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5176,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5235,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-87200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-247800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-232900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5319,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5096,16 +5329,16 @@
         <v>-6900</v>
       </c>
       <c r="E96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-20800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-13900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-6900</v>
@@ -5114,37 +5347,40 @@
         <v>-6900</v>
       </c>
       <c r="K96" s="3">
-        <v>-6500</v>
+        <v>-6900</v>
       </c>
       <c r="L96" s="3">
         <v>-6500</v>
       </c>
       <c r="M96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-13000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-6100</v>
       </c>
       <c r="P96" s="3">
         <v>-6100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-12500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-6300</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-5600</v>
       </c>
       <c r="T96" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5435,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5494,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,64 +5553,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-165900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-118300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-76300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>76600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-75800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>59600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>207800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>238300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5423,60 +5671,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,273 +665,286 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44310</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44023</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43939</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43743</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43659</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43575</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43379</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43295</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43211</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43015</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42931</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42847</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2657800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2247100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2060800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5040600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2856500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1998000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1999800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1995900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2542400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1896800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1886700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4281000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2385100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1885500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1868400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4209900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2353700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1828200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2239800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1908900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1736000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4278600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2432900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1711200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1709400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1706900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2164600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1651400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1630600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3672200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2041900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1630700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1606700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3581500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1996300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1568900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E10" s="3">
         <v>338200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>324800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>762000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>423600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>286800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>290400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>289000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>377800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>245400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>256100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>608800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>343200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>254800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>628400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>357400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>259300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +966,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1026,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,67 +1088,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>227000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,8 +1212,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1209,126 +1235,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2627600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2229700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2031800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4984600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2834400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1986400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1984400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1988600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2520200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1908700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1859900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4225500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2359300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1867100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2062300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4141500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2324100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1803800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E18" s="3">
         <v>17400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>56000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>55500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-193900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1350,303 +1383,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E21" s="3">
         <v>38500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>49900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>105200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>49400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>46600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>51500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-173800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>115100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>4400</v>
       </c>
       <c r="U22" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E23" s="3">
         <v>14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-199900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-76400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1704,126 +1753,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E26" s="3">
         <v>12100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>43900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-123500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E27" s="3">
         <v>11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-121400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1881,13 +1939,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1895,12 +1956,12 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -1908,40 +1969,43 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>25900</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-100</v>
       </c>
       <c r="R29" s="3">
         <v>-100</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1999,8 +2063,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2058,126 +2125,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E33" s="3">
         <v>11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-121400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2235,131 +2311,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E35" s="3">
         <v>11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-121400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44310</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44023</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43939</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43743</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43659</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43575</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43379</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43295</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43211</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43015</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42931</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42847</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2381,8 +2466,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2404,67 +2490,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E41" s="3">
         <v>19900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2522,244 +2612,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>346700</v>
+      </c>
+      <c r="E43" s="3">
         <v>357600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>387100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>374400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>417700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>345300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>374300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>362600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>376700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>346300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>364000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>355100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>330300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>344100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>370500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>349300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>342400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>291600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>602600</v>
+      </c>
+      <c r="E44" s="3">
         <v>541800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>586400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>552400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>516500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>537200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>594700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>572700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>595700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>553800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>592200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>562400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>577500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>597200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>598500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>555600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>539900</v>
       </c>
       <c r="T44" s="3">
         <v>539900</v>
       </c>
       <c r="U44" s="3">
+        <v>539900</v>
+      </c>
+      <c r="V44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E45" s="3">
         <v>95500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>95100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>97300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>92800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>56100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>37700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1014700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1095500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1058700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1048300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>996700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1048500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>998500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1052800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1001100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1028800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>985800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>985200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1004300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1015600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>960500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>944700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>893500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2817,126 +2922,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>841800</v>
+      </c>
+      <c r="E48" s="3">
         <v>866200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>831400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>829600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>853600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>884800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>890700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>893900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>896700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>579100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>577300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>581800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>582400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>588400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>621600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>628000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>559700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E49" s="3">
         <v>297200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>308400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>309700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>311500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>309400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>310200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>323100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>307600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>308900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>309800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>311200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>313100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>314000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>496700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>498900</v>
-      </c>
-      <c r="T49" s="3">
-        <v>322700</v>
       </c>
       <c r="U49" s="3">
         <v>322700</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>322700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2994,8 +3108,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3053,8 +3170,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,58 +3182,61 @@
         <v>99200</v>
       </c>
       <c r="E52" s="3">
+        <v>99200</v>
+      </c>
+      <c r="F52" s="3">
         <v>94600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>99900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>82700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>85900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>89400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>139100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>133400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>138100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>138200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>115800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>119800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>109000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>154400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3171,67 +3294,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2275600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2277400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2321600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2296500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2314200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2275600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2334500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2292000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2359500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1971900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2054000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2010800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2016900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2055800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2033800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2198500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2180600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1930300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3253,8 +3382,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3276,362 +3406,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>441800</v>
+      </c>
+      <c r="E57" s="3">
         <v>464800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>501100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>489400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>509200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>405400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>457000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>406900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>391300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>357800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>411400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>364700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>356500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>377000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>440600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>394300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>370700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>372400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>17400</v>
       </c>
       <c r="T58" s="3">
         <v>17400</v>
       </c>
       <c r="U58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="V58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E59" s="3">
         <v>219600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>188100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>182500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>164100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>153400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>146900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>143100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>145800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>98600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>105900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>108400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>116100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E60" s="3">
         <v>689600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>694600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>677400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>679400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>565100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>611000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>567800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>555100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>476500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>518100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>478400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>464500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>494600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>560000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>514800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>489500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>506000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>522100</v>
+      </c>
+      <c r="E61" s="3">
         <v>481300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>540900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>552200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>591100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>682200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>686100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>684500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>753100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>679800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>694900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>702900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>733400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>740800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>651500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>641300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>658300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>413700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E62" s="3">
         <v>371500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>362600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>357700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>358000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>340700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>348200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>352000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>357500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>104700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>105100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>107000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>116300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>193400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>191400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>185300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3689,8 +3838,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3748,8 +3900,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3807,67 +3962,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1542300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1598100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1587300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1628500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1588100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1645300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1604300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1665700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1256000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1317700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1286300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1304900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1333800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1327800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1349500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1339200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1104900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3889,8 +4050,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3948,8 +4110,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4007,8 +4172,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4066,8 +4234,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4125,67 +4296,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>257800</v>
+      </c>
+      <c r="E72" s="3">
         <v>245500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>240300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>227300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>205700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>198900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>200400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>207600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>221300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>247600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>268100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>257100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>245800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>240000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>208800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>338400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>323600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>314900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4243,8 +4420,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4302,8 +4482,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4361,67 +4544,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>750500</v>
+      </c>
+      <c r="E76" s="3">
         <v>735000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>723500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>709300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>685700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>687500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>689300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>687600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>693800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>715900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>736400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>724500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>712000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>722000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>706000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>849100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>841500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>825400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4479,131 +4668,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44310</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44023</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43939</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43743</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43659</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43575</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43379</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43295</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43211</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43015</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42931</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42847</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E81" s="3">
         <v>11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-121400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4625,67 +4823,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20900</v>
+        <v>28100</v>
       </c>
       <c r="E83" s="3">
         <v>20900</v>
       </c>
       <c r="F83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G83" s="3">
         <v>48100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>28000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>21100</v>
       </c>
       <c r="J83" s="3">
         <v>21100</v>
       </c>
       <c r="K83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4743,8 +4945,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4802,8 +5007,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4861,8 +5069,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4920,8 +5131,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4979,67 +5193,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E89" s="3">
         <v>82900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>198200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>129300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>90300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>60300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>75700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5061,67 +5281,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5179,8 +5403,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5238,67 +5465,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-247800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-232900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5320,28 +5553,29 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E96" s="3">
         <v>-6900</v>
       </c>
       <c r="F96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-20800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-13900</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-6900</v>
@@ -5350,37 +5584,40 @@
         <v>-6900</v>
       </c>
       <c r="L96" s="3">
-        <v>-6500</v>
+        <v>-6900</v>
       </c>
       <c r="M96" s="3">
         <v>-6500</v>
       </c>
       <c r="N96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="O96" s="3">
         <v>-13000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-6100</v>
       </c>
       <c r="Q96" s="3">
         <v>-6100</v>
       </c>
       <c r="R96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="S96" s="3">
         <v>-12500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-6300</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-5600</v>
       </c>
       <c r="U96" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5438,8 +5675,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5497,8 +5737,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5556,67 +5799,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-165900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-118300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-76300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>76600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-75800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-37900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>59600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>207800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>238300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5674,63 +5923,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,286 +665,312 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44478</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44394</v>
+      </c>
+      <c r="F7" s="2">
         <v>44310</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44023</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43939</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43743</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43659</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43575</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43379</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43295</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43211</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43015</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42931</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42847</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2073300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2106600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2657800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2247100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2060800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5040600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2856500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1998000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1999800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1995900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2542400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1896800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1886700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4281000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2385100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1885500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1868400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4209900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2353700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1828200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1743800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1772900</v>
+      </c>
+      <c r="F9" s="3">
         <v>2239800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1908900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1736000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4278600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2432900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1711200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1709400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1706900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2164600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1651400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1630600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3672200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2041900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1630700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1606700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3581500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1996300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1568900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>329500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>333700</v>
+      </c>
+      <c r="F10" s="3">
         <v>418000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>338200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>324800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>762000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>423600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>286800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>290400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>289000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>377800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>245400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>256100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>608800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>343200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>254800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>261700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>628400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>357400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>259300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,8 +993,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1029,8 +1057,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1091,70 +1125,82 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>13900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>10300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>15100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>33500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>8400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>4300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>227000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>5600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>5000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>11400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1215,8 +1261,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1236,132 +1288,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2050500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2080600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2627600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2229700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2031800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4984600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2834400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1986400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1984400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1988600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2520200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1908700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1859900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4225500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2359300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1867100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2062300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4141500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2324100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1803800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F18" s="3">
         <v>30200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>56000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>22100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>11600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>15400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>22200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>26800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>55500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>25800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>18400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-193900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>68400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>29600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1384,318 +1450,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
-      </c>
       <c r="O20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>300</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>300</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F21" s="3">
         <v>58600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>38500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>49900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>105200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>51100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>32700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>20100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>49400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>7900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>46600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>100900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>51500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>36700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-173800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>115100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>55600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>43200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>11300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>15700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>6200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>6100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>7300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F23" s="3">
         <v>25900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>25500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>45800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-19500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>19900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>40300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>17200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>12500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-199900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>55800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>22400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>20100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F24" s="3">
         <v>6400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5600</v>
       </c>
       <c r="G24" s="3">
         <v>1900</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-76400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>19600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>7400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>7300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1756,132 +1854,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F26" s="3">
         <v>19500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>43900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>15400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>17100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>30300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>12400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>8700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-123500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>36100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>15100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>12800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F27" s="3">
         <v>19100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>19500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>42800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>29600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>12200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>8100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-121400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>35600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>14800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>12600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1942,70 +2058,82 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>25900</v>
       </c>
       <c r="R29" s="3">
         <v>-100</v>
       </c>
       <c r="S29" s="3">
+        <v>25900</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2066,8 +2194,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2128,132 +2262,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
-      </c>
       <c r="O32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-300</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F33" s="3">
         <v>19100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>19500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>42800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>17100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>29500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>12100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>34000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-121400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>35500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>14700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>12600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2314,137 +2466,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F35" s="3">
         <v>19100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>19500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>42800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>17100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>29500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>12100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>34000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-121400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>35500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>14700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>12600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44478</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44394</v>
+      </c>
+      <c r="F38" s="2">
         <v>44310</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44023</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43939</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43743</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43659</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43575</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43379</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43295</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43211</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43015</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42931</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42847</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2467,8 +2637,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2491,70 +2663,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F41" s="3">
         <v>23300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>26900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>34600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>24200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>23400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>19900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>21400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>18600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>15900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>17200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>15700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>13200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>22700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>19500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>24400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2615,256 +2795,286 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>370700</v>
+      </c>
+      <c r="F43" s="3">
         <v>346700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>357600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>387100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>374400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>417700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>345300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>374300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>362600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>376700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>346300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>364000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>355100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>330300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>344100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>370500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>349300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>342400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>291600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>550200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>538500</v>
+      </c>
+      <c r="F44" s="3">
         <v>602600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>541800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>586400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>552400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>516500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>537200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>594700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>572700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>595700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>553800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>592200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>562400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>577500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>597200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>598500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>555600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>539900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>539900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>59600</v>
+      </c>
+      <c r="F45" s="3">
         <v>66400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>95500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>95100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>97300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>92800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>90000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>56100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>43200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>59000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>82500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>52000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>52400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>60200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>47400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>33400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>32900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>42900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>37700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1007200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>992900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1039000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1014700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1095500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1058700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1048300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>996700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1048500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>998500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1052800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1001100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1028800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>985800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>985200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1004300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1015600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>960500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>944700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>893500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2925,132 +3135,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>844800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>831300</v>
+      </c>
+      <c r="F48" s="3">
         <v>841800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>866200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>831400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>829600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>853600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>884800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>890700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>893900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>896700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>579100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>577300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>581800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>582400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>600200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>588400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>621600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>628000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>559700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>294400</v>
+      </c>
+      <c r="F49" s="3">
         <v>295600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>297200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>300100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>308400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>309700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>311500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>309400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>310200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>323100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>307600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>308900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>309800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>311200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>313100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>314000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>496700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>498900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>322700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3111,8 +3339,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3173,70 +3407,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>90600</v>
+      </c>
+      <c r="F52" s="3">
         <v>99200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>99200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>94600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>99900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>102700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>82700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>85900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>89400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>86900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>84200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>139100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>133400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>138100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>138200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>115800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>119800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>109000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>154400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3297,70 +3543,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2242700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2209100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2275600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2277400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2321600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2296500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2314200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2275600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2334500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2292000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2359500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1971900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2054000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2010800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2016900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2055800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2033800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2198500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2180600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1930300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3383,8 +3641,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3407,380 +3667,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>490600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>441900</v>
+      </c>
+      <c r="F57" s="3">
         <v>441800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>464800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>501100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>489400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>509200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>405400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>457000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>406900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>391300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>357800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>411400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>364700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>356500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>377000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>440600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>394300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>370700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>372400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>17700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>18000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>18300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>9200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>19400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>19000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>17400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>17400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200900</v>
+      </c>
+      <c r="F59" s="3">
         <v>182200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>219600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>188100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>182500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>164100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>153400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>146900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>143100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>145800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>98600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>105900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>108400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>101500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>101400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>116100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>648500</v>
+      </c>
+      <c r="F60" s="3">
         <v>629000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>689600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>694600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>677400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>679400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>565100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>611000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>567800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>555100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>476500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>518100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>478400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>464500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>494600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>560000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>514800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>489500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>506000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>398500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>445600</v>
+      </c>
+      <c r="F61" s="3">
         <v>522100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>481300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>540900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>552200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>591100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>682200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>686100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>684500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>753100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>679800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>694900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>702900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>733400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>740800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>651500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>641300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>658300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>413700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>376600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>358900</v>
+      </c>
+      <c r="F62" s="3">
         <v>374000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>371500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>362600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>357700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>358000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>340700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>348200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>352000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>357500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>99700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>104700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>105100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>107000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>98500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>116300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>193400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>191400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>185300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3841,8 +4139,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3903,8 +4207,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3965,70 +4275,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1477100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1525000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1542300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1598100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1587300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1628500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1588100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1645300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1604300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1665700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1256000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1317700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1286300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1304900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1333800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1327800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1349500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1339200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1104900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4051,8 +4373,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4113,8 +4437,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4175,8 +4505,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4237,8 +4573,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4299,70 +4641,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>275400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>267500</v>
+      </c>
+      <c r="F72" s="3">
         <v>257800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>245500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>240300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>227300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>205700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>198900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>200400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>207600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>221300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>247600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>268100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>257100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>245800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>240000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>208800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>338400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>323600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>314900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4423,8 +4777,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4485,8 +4845,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4547,70 +4913,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>765600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>756200</v>
+      </c>
+      <c r="F76" s="3">
         <v>750500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>735000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>723500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>709300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>685700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>687500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>689300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>687600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>693800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>715900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>736400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>724500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>712000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>722000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>706000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>849100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>841500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>825400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4671,137 +5049,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44478</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44394</v>
+      </c>
+      <c r="F80" s="2">
         <v>44310</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44023</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43939</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43743</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43659</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43575</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43379</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43295</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43211</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43015</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42931</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42847</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F81" s="3">
         <v>19100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>19500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>42800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>17100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>29500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>12100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>34000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-121400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>35500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>14700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>12600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4824,70 +5220,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F83" s="3">
         <v>28100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>20900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>48100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>28000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>21000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>21100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>19700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>19600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>44900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>25600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>18000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>20000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>46400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>25900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>18700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4948,8 +5352,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5010,8 +5420,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5072,8 +5488,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5134,8 +5556,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5196,70 +5624,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>105400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-31800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>82900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>25600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>198200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>129300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>40100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>36200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>90300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>13400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>29100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>38200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>104200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>60300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-18800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>33100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>38400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-10200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>75700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5282,70 +5722,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-22100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-21400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-15300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-30600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-17900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-27900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-18900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-18000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-34600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-17500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-37800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-19500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-32400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5406,8 +5854,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5468,70 +5922,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F94" s="3">
         <v>4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-21700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-13700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-21800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-25500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-87200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-18600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-28100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-38200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-29400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-247800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-232900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-15700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5554,8 +6020,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5563,61 +6031,67 @@
         <v>-7100</v>
       </c>
       <c r="E96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-6900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-20800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-13900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-6900</v>
-      </c>
       <c r="K96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-6900</v>
       </c>
       <c r="M96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-13000</v>
       </c>
       <c r="P96" s="3">
         <v>-6500</v>
       </c>
       <c r="Q96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-6100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-12500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-6300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-5600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5678,8 +6152,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5740,8 +6220,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5802,70 +6288,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="F100" s="3">
         <v>30900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-68200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-19600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-165900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-118300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-13800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-17700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-76300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>76600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-12500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-75800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-37900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>59600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-13400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>207800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>238300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-62000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5926,66 +6424,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>800</v>
+      </c>
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>10500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-9600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,312 +665,324 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44478</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44394</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44310</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44023</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43939</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43743</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43659</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43575</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43379</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43295</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43211</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43015</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42931</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42847</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2093400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2073300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2106600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2657800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2247100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2060800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5040600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2856500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1998000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1999800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1995900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2542400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1896800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1886700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4281000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2385100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1885500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1868400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4209900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2353700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1828200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1770700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1743800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1772900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2239800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1908900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1736000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4278600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2432900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1711200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1709400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1706900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2164600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1651400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1630600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3672200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2041900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1630700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1606700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3581500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1996300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1568900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>322700</v>
+      </c>
+      <c r="E10" s="3">
         <v>329500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>333700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>418000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>338200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>324800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>762000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>423600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>286800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>290400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>289000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>377800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>245400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>256100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>608800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>343200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>254800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>261700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>628400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>357400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>259300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -995,8 +1007,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1063,8 +1076,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,76 +1147,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>33500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>227000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1267,8 +1289,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1290,144 +1315,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2060100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2050500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2080600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2627600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2229700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2031800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4984600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2834400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1986400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1984400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1988600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2520200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1908700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1859900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4225500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2359300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1867100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2062300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4141500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2324100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1803800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E18" s="3">
         <v>22800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>56000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-193900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1452,8 +1484,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1464,132 +1497,138 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E21" s="3">
         <v>44500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>58600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>38500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>49900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>105200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>49400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>51500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-173800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>115100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>55600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,203 +1636,212 @@
         <v>3000</v>
       </c>
       <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7300</v>
-      </c>
-      <c r="W22" s="3">
-        <v>4400</v>
       </c>
       <c r="X22" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E23" s="3">
         <v>19700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-199900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-76400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1860,144 +1908,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E26" s="3">
         <v>15200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-123500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>14900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>29600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-121400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>35600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2121,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2078,8 +2138,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2087,12 +2147,12 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2100,40 +2160,43 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>25900</v>
-      </c>
-      <c r="T29" s="3">
-        <v>-100</v>
       </c>
       <c r="U29" s="3">
         <v>-100</v>
       </c>
       <c r="V29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2200,8 +2263,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2268,8 +2334,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2280,132 +2349,138 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-121400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>35500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2472,149 +2547,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-121400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>35500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44478</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44394</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44310</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44023</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43939</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43743</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43659</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43575</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43379</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43295</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43211</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43015</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42931</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42847</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2639,8 +2723,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2665,76 +2750,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E41" s="3">
         <v>24600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2801,280 +2890,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>361700</v>
+      </c>
+      <c r="E43" s="3">
         <v>372000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>370700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>346700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>357600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>387100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>374400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>417700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>345300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>362600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>376700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>346300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>364000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>355100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>330300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>344100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>370500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>349300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>342400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>291600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>522300</v>
+      </c>
+      <c r="E44" s="3">
         <v>550200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>538500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>602600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>541800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>586400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>552400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>516500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>537200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>594700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>572700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>595700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>553800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>592200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>562400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>577500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>597200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>598500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>555600</v>
-      </c>
-      <c r="V44" s="3">
-        <v>539900</v>
       </c>
       <c r="W44" s="3">
         <v>539900</v>
       </c>
       <c r="X44" s="3">
+        <v>539900</v>
+      </c>
+      <c r="Y44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E45" s="3">
         <v>60300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>66400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>95500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>95100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>97300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>92800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>56100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>82500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>47400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>33400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>42900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>37700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>957200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1007200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>992900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1039000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1014700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1095500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1058700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1048300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>996700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1048500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>998500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1052800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1001100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1028800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>985800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>985200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1004300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1015600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>960500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>944700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>893500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3141,144 +3245,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>860400</v>
+      </c>
+      <c r="E48" s="3">
         <v>844800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>831300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>841800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>866200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>831400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>829600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>853600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>884800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>890700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>893900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>896700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>579100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>577300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>581800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>582400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>600200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>588400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>621600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>628000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>559700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E49" s="3">
         <v>293200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>294400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>295600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>297200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>308400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>309700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>311500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>309400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>310200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>323100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>307600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>308900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>309800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>311200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>313100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>314000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>496700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>498900</v>
-      </c>
-      <c r="W49" s="3">
-        <v>322700</v>
       </c>
       <c r="X49" s="3">
         <v>322700</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>322700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3345,8 +3458,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3413,76 +3529,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E52" s="3">
         <v>97500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>99200</v>
       </c>
       <c r="G52" s="3">
         <v>99200</v>
       </c>
       <c r="H52" s="3">
+        <v>99200</v>
+      </c>
+      <c r="I52" s="3">
         <v>94600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>99900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>102700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>89400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>139100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>133400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>138100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>138200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>115800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>119800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>109000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>154400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3549,76 +3671,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2206800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2242700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2209100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2275600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2277400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2321600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2296500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2314200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2275600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2334500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2292000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2359500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1971900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2054000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2010800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2016900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2055800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2033800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2198500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2180600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1930300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3643,8 +3771,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3669,416 +3798,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>447500</v>
+      </c>
+      <c r="E57" s="3">
         <v>490600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>441900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>441800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>464800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>501100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>489400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>509200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>405400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>457000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>406900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>391300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>357800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>411400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>364700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>356500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>377000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>440600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>394300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>370700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>372400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="E58" s="3">
         <v>5700</v>
       </c>
       <c r="F58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>9200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>19000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>17400</v>
       </c>
       <c r="W58" s="3">
         <v>17400</v>
       </c>
       <c r="X58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="Y58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E59" s="3">
         <v>205800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>182200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>219600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>188100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>182500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>164100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>153400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>146900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>143100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>145800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>98600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>105900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>108400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>101400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>116100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>655800</v>
+      </c>
+      <c r="E60" s="3">
         <v>702000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>648500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>629000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>689600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>694600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>677400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>679400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>565100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>611000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>567800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>555100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>476500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>518100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>478400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>464500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>494600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>560000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>514800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>489500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>506000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>399400</v>
+      </c>
+      <c r="E61" s="3">
         <v>398500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>445600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>522100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>481300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>540900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>552200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>591100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>682200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>686100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>684500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>753100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>679800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>694900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>702900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>733400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>740800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>651500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>641300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>658300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>413700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>368700</v>
+      </c>
+      <c r="E62" s="3">
         <v>376600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>358900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>374000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>371500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>362600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>357700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>358000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>340700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>348200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>352000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>357500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>99700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>104700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>105100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>107000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>98500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>116300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>193400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>191400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>185300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4145,8 +4293,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4213,8 +4364,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4281,76 +4435,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1423900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1477100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1453000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1525000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1542300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1598100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1587300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1628500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1588100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1645300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1604300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1665700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1256000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1317700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1286300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1304900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1333800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1327800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1349500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1339200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1104900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4375,8 +4535,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4443,8 +4604,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4511,8 +4675,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4579,8 +4746,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4647,76 +4817,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>290500</v>
+      </c>
+      <c r="E72" s="3">
         <v>275400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>267500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>257800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>245500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>240300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>227300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>205700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>198900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>207600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>221300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>247600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>268100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>257100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>245800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>240000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>208800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>338400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>323600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>314900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4783,8 +4959,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4851,8 +5030,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4919,76 +5101,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>782900</v>
+      </c>
+      <c r="E76" s="3">
         <v>765600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>756200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>750500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>735000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>723500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>709300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>685700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>687500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>689300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>687600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>693800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>715900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>736400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>724500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>712000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>722000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>706000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>849100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>841500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>825400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5055,149 +5243,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44478</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44394</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44310</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44023</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43939</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43743</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43659</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43575</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43379</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43295</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43211</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43015</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42931</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42847</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-121400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>35500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5222,76 +5419,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E83" s="3">
         <v>21800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>20900</v>
       </c>
       <c r="H83" s="3">
         <v>20900</v>
       </c>
       <c r="I83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J83" s="3">
         <v>48100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>21100</v>
       </c>
       <c r="M83" s="3">
         <v>21100</v>
       </c>
       <c r="N83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="O83" s="3">
         <v>27400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>19600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>20000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>46400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5358,8 +5559,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5426,8 +5630,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5494,8 +5701,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5562,8 +5772,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5630,76 +5843,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E89" s="3">
         <v>70400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>105400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>82900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>198200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>129300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>90300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>104200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-18800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>38400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-10200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>75700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5724,76 +5943,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5860,8 +6083,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5928,76 +6154,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-247800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-232900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6022,37 +6254,38 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-6900</v>
       </c>
       <c r="H96" s="3">
         <v>-6900</v>
       </c>
       <c r="I96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-20800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-6900</v>
@@ -6061,37 +6294,40 @@
         <v>-6900</v>
       </c>
       <c r="O96" s="3">
-        <v>-6500</v>
+        <v>-6900</v>
       </c>
       <c r="P96" s="3">
         <v>-6500</v>
       </c>
       <c r="Q96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-13000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-6100</v>
       </c>
       <c r="T96" s="3">
         <v>-6100</v>
       </c>
       <c r="U96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="V96" s="3">
         <v>-12500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-6300</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-5600</v>
       </c>
       <c r="X96" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6158,8 +6394,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6226,8 +6465,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6294,76 +6536,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-90200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>30900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-165900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-118300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-76300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>76600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-75800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-37900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>59600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>207800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>238300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-62000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6430,72 +6678,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,324 +665,350 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44758</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44674</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44478</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44394</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44310</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44023</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43939</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43743</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43659</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43575</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43379</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43295</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43211</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43015</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42931</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42847</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2273900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2763700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2093400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2073300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2106600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2657800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2247100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2060800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5040600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2856500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1998000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1999800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1995900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2542400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1896800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1886700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4281000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2385100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1885500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1868400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4209900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2353700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1828200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1919600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2313100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1770700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1743800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1772900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2239800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1908900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1736000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4278600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2432900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1711200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1709400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1706900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2164600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1651400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1630600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3672200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2041900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1630700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1606700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3581500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1996300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1568900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>450600</v>
+      </c>
+      <c r="F10" s="3">
         <v>322700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>329500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>333700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>418000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>338200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>324800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>762000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>423600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>286800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>290400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>289000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>377800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>245400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>256100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>608800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>343200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>254800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>261700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>628400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>357400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>259300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1008,8 +1034,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1079,8 +1107,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,79 +1184,91 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-21000</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>13900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>10300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>15100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>33500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>8400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>4300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>227000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>5600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>5000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>11400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1292,8 +1338,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1316,150 +1368,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2261600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2735500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2060100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2050500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2080600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2627600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2229700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2031800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4984600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2834400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1986400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1984400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1988600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2520200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1908700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1859900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4225500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2359300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1867100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2062300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4141500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2324100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1803800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F18" s="3">
         <v>33300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>22800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>26000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>30200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>17400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>29000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>56000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>11600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>15400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>22200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>26800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>55500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>25800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>18400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-193900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>68400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>29600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>24400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1485,363 +1551,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
-      </c>
       <c r="R20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>300</v>
       </c>
       <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>56800</v>
+      </c>
+      <c r="F21" s="3">
         <v>54800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>44500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>47300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>58600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>38500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>49900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>105200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>51100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>32700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>26500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>20100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>49400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>7900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>46600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>51500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>36700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-173800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>115100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>55600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>43200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>15700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>8800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>6200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>6100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>13000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>7300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>4400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F23" s="3">
         <v>30400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>22700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>25900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>25500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>45800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>15400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>19900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>40300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>17200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>12500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-199900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>55800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>22400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>20100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5600</v>
       </c>
       <c r="J24" s="3">
         <v>1900</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="L24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>4800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>3800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-76400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>19600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>7400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>7300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1911,150 +2009,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F26" s="3">
         <v>22200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>15200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>16800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>19500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>12100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>43900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>17100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>30300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>12400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>8700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-123500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>36100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>15100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>12800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>16500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>19100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>11800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>19500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>42800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>7300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>16600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>29600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>12200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>8100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-121400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>35600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>14800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>12600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2124,8 +2240,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2141,62 +2263,68 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-200</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T29" s="3">
-        <v>25900</v>
       </c>
       <c r="U29" s="3">
         <v>-100</v>
       </c>
       <c r="V29" s="3">
+        <v>25900</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2266,8 +2394,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2337,150 +2471,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
-      </c>
       <c r="R32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
       <c r="T32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-300</v>
       </c>
       <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>16500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>19100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>19500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>42800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>7300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>17100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>29500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>12100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>34000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-121400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>35500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>14700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>12600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2550,155 +2702,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>16500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>19100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>19500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>42800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>7300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>17100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>29500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>12100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>34000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-121400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>35500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>14700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>12600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44758</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44674</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44478</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44394</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44310</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44023</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43939</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43743</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43659</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43575</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43379</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43295</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43211</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43015</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42931</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42847</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2724,8 +2894,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2751,79 +2923,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F41" s="3">
         <v>10700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>19900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>26900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>34600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>21300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>24200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>23400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>19900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>18600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>20700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>15900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>17200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>13200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>22700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>19500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>24400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2893,292 +3073,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>411500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>395500</v>
+      </c>
+      <c r="F43" s="3">
         <v>361700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>372000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>370700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>346700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>357600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>387100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>374400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>417700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>345300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>374300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>362600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>376700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>346300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>364000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>355100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>330300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>344100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>370500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>349300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>342400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>291600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>591600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>556300</v>
+      </c>
+      <c r="F44" s="3">
         <v>522300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>550200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>538500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>602600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>541800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>586400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>552400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>516500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>537200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>594700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>572700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>595700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>553800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>592200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>562400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>577500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>597200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>598500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>555600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>539900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>539900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>63800</v>
+      </c>
+      <c r="F45" s="3">
         <v>62500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>60300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>59600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>66400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>95500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>95100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>97300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>92800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>90000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>56100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>43200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>59000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>82500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>52000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>52400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>60200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>47400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>33400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>32900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>42900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>37700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1121600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1031900</v>
+      </c>
+      <c r="F46" s="3">
         <v>957200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1007200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>992900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1039000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1014700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1095500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1058700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1048300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>996700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1048500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>998500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1052800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1001100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1028800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>985800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>985200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1004300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1015600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>960500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>944700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>893500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3248,150 +3458,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>822300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>844900</v>
+      </c>
+      <c r="F48" s="3">
         <v>860400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>844800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>831300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>841800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>866200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>831400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>829600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>853600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>884800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>890700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>893900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>896700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>579100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>577300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>581800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>582400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>600200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>588400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>621600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>628000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>559700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>290500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>290400</v>
+      </c>
+      <c r="F49" s="3">
         <v>292000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>293200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>294400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>295600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>297200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>300100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>308400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>309700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>311500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>309400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>310200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>323100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>307600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>308900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>309800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>311200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>313100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>314000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>496700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>498900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>322700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3461,8 +3689,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3532,79 +3766,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F52" s="3">
         <v>97200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>97500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>90600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>99200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>99200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>94600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>99900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>102700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>82700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>85900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>89400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>86900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>84200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>139100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>133400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>138100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>138200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>115800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>119800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>109000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>154400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3674,79 +3920,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2322300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2264200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2206800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2242700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2209100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2275600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2277400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2321600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2296500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2314200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2275600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2334500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2292000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2359500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1971900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2054000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2010800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2016900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2055800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2033800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2198500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2180600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1930300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3772,8 +4030,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3799,79 +4059,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>503700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>479000</v>
+      </c>
+      <c r="F57" s="3">
         <v>447500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>490600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>441900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>441800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>464800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>501100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>489400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>509200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>405400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>457000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>406900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>391300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>357800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>411400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>364700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>356500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>377000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>440600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>394300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>370700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>372400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3879,354 +4147,384 @@
         <v>6300</v>
       </c>
       <c r="E58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>17700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>18000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>18300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>8100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>7800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>9200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>19400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>19000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>17400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>17400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>176900</v>
+      </c>
+      <c r="F59" s="3">
         <v>202100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>205800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>182200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>219600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>188100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>182500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>164100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>153400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>146900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>143100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>145800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>98600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>105900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>108400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>100000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>101500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>101400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>116100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>704300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>661600</v>
+      </c>
+      <c r="F60" s="3">
         <v>655800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>702000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>648500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>629000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>689600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>694600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>677400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>679400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>565100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>611000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>567800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>555100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>476500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>518100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>478400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>464500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>494600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>560000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>514800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>489500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>506000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>473900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>444300</v>
+      </c>
+      <c r="F61" s="3">
         <v>399400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>398500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>445600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>522100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>481300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>540900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>552200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>591100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>682200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>686100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>684500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>753100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>679800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>694900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>702900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>733400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>740800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>651500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>641300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>658300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>413700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>363000</v>
+      </c>
+      <c r="F62" s="3">
         <v>368700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>376600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>358900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>374000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>371500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>362600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>357700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>358000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>340700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>348200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>352000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>357500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>99700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>104700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>105100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>107000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>98500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>116300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>193400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>191400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>185300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4296,8 +4594,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4367,8 +4671,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4438,79 +4748,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1528600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1468900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1423900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1477100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1453000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1525000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1542300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1598100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1587300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1628500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1588100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1645300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1604300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1665700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1256000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1317700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1286300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1304900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1333800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1327800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1349500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1339200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1104900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4536,8 +4858,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4607,8 +4931,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4678,8 +5008,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4749,8 +5085,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4820,79 +5162,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>299700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>302200</v>
+      </c>
+      <c r="F72" s="3">
         <v>290500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>275400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>267500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>257800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>245500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>240300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>227300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>205700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>198900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>200400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>207600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>221300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>247600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>268100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>257100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>245800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>240000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>208800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>338400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>323600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>314900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4962,8 +5316,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5033,8 +5393,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5104,79 +5470,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>793700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>795300</v>
+      </c>
+      <c r="F76" s="3">
         <v>782900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>765600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>756200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>750500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>735000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>723500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>709300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>685700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>687500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>689300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>687600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>693800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>715900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>736400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>724500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>712000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>722000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>706000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>849100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>841500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>825400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5246,155 +5624,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44758</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44674</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44478</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44394</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44310</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44023</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43939</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43743</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43659</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43575</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43379</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43295</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43211</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43015</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42931</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42847</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>16500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>19100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>19500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>42800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>7300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>17100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>29500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>12100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>34000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-121400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>35500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>14700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>12600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5420,79 +5816,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F83" s="3">
         <v>21500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>21400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>28100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>20900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>20900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>48100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>21000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>21100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>27400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>19600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>44900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>25600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>18000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>20000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>46400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>25900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>18700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5562,8 +5966,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5633,8 +6043,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5704,8 +6120,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5775,8 +6197,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5846,79 +6274,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F89" s="3">
         <v>17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>70400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>105400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-31800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>82900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>25600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>198200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>129300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>40100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>36200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>90300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>13400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>29100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>38200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>104200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>60300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-18800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>33100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>38400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-10200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>75700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5944,79 +6384,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-24500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-15100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-17700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-22100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-21400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-30600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-27900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-15800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-18000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-34600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-21000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-15600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-17500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-37800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-19500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-32400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6086,8 +6534,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6157,79 +6611,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-14300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-21700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-21800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-15400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-87200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-17400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-28100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-20900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-38200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-29400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-247800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-232900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6255,79 +6721,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-7200</v>
       </c>
       <c r="G96" s="3">
         <v>-7100</v>
       </c>
       <c r="H96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-6900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-20800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-13900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-6900</v>
-      </c>
       <c r="N96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-6900</v>
       </c>
       <c r="P96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-13000</v>
       </c>
       <c r="S96" s="3">
         <v>-6500</v>
       </c>
       <c r="T96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-6100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-12500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-6300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6397,8 +6871,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6468,8 +6948,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6539,79 +7025,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-55800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-90200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>30900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-68200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-19600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-165900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-118300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-13800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-76300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>76600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-16000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-75800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-37900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>59600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-13400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>207800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>238300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-62000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6681,75 +7179,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>10500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-9600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-4800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,350 +665,376 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44842</v>
+      </c>
+      <c r="F7" s="2">
         <v>44758</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44674</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44478</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44394</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44310</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44023</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43939</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43743</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43659</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43575</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43379</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43295</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43211</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43015</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42931</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42847</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2296500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2273900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2763700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2093400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2073300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2106600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2657800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2247100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2060800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5040600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2856500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1998000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1999800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1995900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2542400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1896800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1886700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4281000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2385100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1885500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1868400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4209900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2353700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1828200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1967600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1945300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1919600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2313100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1770700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1743800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1772900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2239800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1908900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1736000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4278600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2432900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1711200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1709400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1706900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2164600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1651400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1630600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3672200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2041900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1630700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1606700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3581500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1996300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1568900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>351200</v>
+      </c>
+      <c r="F10" s="3">
         <v>354300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>450600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>322700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>329500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>333700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>418000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>338200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>324800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>762000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>423600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>286800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>290400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>289000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>377800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>245400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>256100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>608800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>343200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>254800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>261700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>628400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>357400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>259300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,8 +1062,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1113,8 +1141,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,85 +1224,97 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>3700</v>
-      </c>
-      <c r="E14" s="3">
-        <v>300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-21000</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
       <c r="H14" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3">
         <v>3800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>13900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>15100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>33500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>8000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>8400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>4300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>227000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>5600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>5000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>11400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1344,8 +1390,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1370,162 +1422,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2277200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2261600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2735500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2060100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2050500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2080600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2627600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2229700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2031800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4984600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2834400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1986400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1984400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1988600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2520200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1908700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1859900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4225500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2359300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1867100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2062300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4141500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2324100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1803800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F18" s="3">
         <v>12300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>28200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>33300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>22800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>26000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>30200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>17400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>29000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>56000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>22100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>11600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>15400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>7300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>22200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-11900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>26800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>55500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>25800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>18400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-193900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>68400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>29600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>24400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1553,393 +1619,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
-      </c>
       <c r="T20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>300</v>
       </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F21" s="3">
         <v>33700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>56800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>54800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>44500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>47300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>58600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>38500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>49900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>105200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>51100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>32700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>26500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>20100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>49400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>7900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>46600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>100900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>51500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>36700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-173800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>115100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>55600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>43200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>11300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>11900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>7700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>15700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>8800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>6200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>6100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>13000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>7300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>4400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F23" s="3">
         <v>7200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>24200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>30400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>19700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>22700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>25900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>25500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>45800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>15400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>10100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-19500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>19900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>40300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>17200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>12500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-199900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>55800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>22400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>20100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5600</v>
       </c>
       <c r="L24" s="3">
         <v>1900</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="N24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-5500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-76400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>19600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>7400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>7300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2015,162 +2113,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F26" s="3">
         <v>5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>19300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>22200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>15200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>16800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>19500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>20000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>43900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>17100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>30300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>12400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>8700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-123500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>36100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>15100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>12800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>16500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>19100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>42800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-13700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>16600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>29600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>12200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>8100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-121400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>35600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>14800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>12600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2246,8 +2362,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2269,62 +2391,68 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-200</v>
-      </c>
-      <c r="U29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V29" s="3">
-        <v>25900</v>
       </c>
       <c r="W29" s="3">
         <v>-100</v>
       </c>
       <c r="X29" s="3">
+        <v>25900</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2400,8 +2528,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2477,162 +2611,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>8400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
-      </c>
       <c r="T32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-300</v>
       </c>
       <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>16500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>19100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>42800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>7300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-13700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>17100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>29500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>12100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>34000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-121400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>35500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>14700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>12600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2708,167 +2860,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>16500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>19100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>42800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>7300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-13700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>17100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>29500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>12100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>34000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-121400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>35500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>14700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>12600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44842</v>
+      </c>
+      <c r="F38" s="2">
         <v>44758</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44674</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44478</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44394</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44310</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44023</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43939</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43743</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43659</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43575</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43379</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43295</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43211</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43015</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42931</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42847</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2896,8 +3066,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2925,85 +3097,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F41" s="3">
         <v>21200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>26900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>34600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>19900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>18600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>20700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>17200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>15700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>13200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>22700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>19500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>24400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3079,316 +3259,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>430200</v>
+      </c>
+      <c r="F43" s="3">
         <v>411500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>395500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>361700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>372000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>370700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>346700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>357600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>387100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>374400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>417700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>345300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>374300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>362600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>376700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>346300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>364000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>355100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>330300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>344100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>370500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>349300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>342400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>291600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>571100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>623500</v>
+      </c>
+      <c r="F44" s="3">
         <v>591600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>556300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>522300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>550200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>538500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>602600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>541800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>586400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>552400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>516500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>537200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>594700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>572700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>595700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>553800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>592200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>562400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>577500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>597200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>598500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>555600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>539900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>539900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>73900</v>
+      </c>
+      <c r="F45" s="3">
         <v>97300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>63800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>62500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>60300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>59600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>66400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>95500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>95100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>97300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>92800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>90000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>56100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>43200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>59000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>82500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>52000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>52400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>60200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>47400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>33400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>32900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>42900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>37700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1066400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1146500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1121600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1031900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>957200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1007200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>992900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1039000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1014700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1095500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1058700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1048300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>996700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1048500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>998500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1052800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1001100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1028800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>985800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>985200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1004300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1015600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>960500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>944700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>893500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3464,162 +3674,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>867300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>820100</v>
+      </c>
+      <c r="F48" s="3">
         <v>822300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>844900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>860400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>844800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>831300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>841800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>866200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>831400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>829600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>853600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>884800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>890700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>893900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>896700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>579100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>577300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>581800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>582400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>600200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>588400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>621600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>628000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>559700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>289600</v>
+      </c>
+      <c r="F49" s="3">
         <v>290500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>290400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>292000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>293200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>294400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>295600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>297200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>300100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>308400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>309700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>311500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>309400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>310200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>323100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>307600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>308900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>309800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>311200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>313100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>314000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>496700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>498900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>322700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3695,8 +3923,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3772,85 +4006,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F52" s="3">
         <v>87900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>97000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>97200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>97500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>90600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>99200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>99200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>94600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>99900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>102700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>82700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>85900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>89400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>86900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>84200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>139100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>133400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>138100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>138200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>115800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>119800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>109000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>154400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3926,85 +4172,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2306600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2341500</v>
+      </c>
+      <c r="F54" s="3">
         <v>2322300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2264200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2206800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2242700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2209100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2275600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2277400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2321600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2296500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2314200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2275600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2334500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2292000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2359500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1971900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2054000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2010800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2016900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2055800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2033800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2198500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2180600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1930300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4032,8 +4290,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4061,470 +4321,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>487200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>492900</v>
+      </c>
+      <c r="F57" s="3">
         <v>503700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>479000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>447500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>490600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>441900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>441800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>464800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>501100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>489400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>509200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>405400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>457000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>406900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>391300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>357800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>411400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>364700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>356500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>377000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>440600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>394300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>370700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>372400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="E58" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="3">
         <v>6300</v>
       </c>
       <c r="G58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>17700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>18000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>18300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>8100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>7800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>7600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>9200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>19400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>19000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>17400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>17400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>203000</v>
+      </c>
+      <c r="F59" s="3">
         <v>194300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>176900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>202100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>205800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>182200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>219600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>188100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>182500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>164100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>153400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>146900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>143100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>145800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>98600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>105900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>100400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>108400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>100000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>101500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>101400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>116100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>702600</v>
+      </c>
+      <c r="F60" s="3">
         <v>704300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>661600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>655800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>702000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>648500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>629000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>689600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>694600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>677400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>679400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>565100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>611000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>567800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>555100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>476500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>518100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>478400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>464500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>494600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>560000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>514800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>489500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>506000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>496800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>512700</v>
+      </c>
+      <c r="F61" s="3">
         <v>473900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>444300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>399400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>398500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>445600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>522100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>481300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>540900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>552200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>591100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>682200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>686100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>684500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>753100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>679800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>694900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>702900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>733400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>740800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>651500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>641300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>658300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>413700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>338700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>345700</v>
+      </c>
+      <c r="F62" s="3">
         <v>350400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>363000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>368700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>376600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>358900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>374000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>371500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>362600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>357700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>358000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>340700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>348200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>352000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>357500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>99700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>104700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>105100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>107000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>98500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>116300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>193400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>191400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>185300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4600,8 +4898,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4677,8 +4981,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4754,85 +5064,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1540500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1561100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1528600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1468900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1423900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1477100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1453000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1525000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1542300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1598100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1587300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1628500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1588100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1645300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1604300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1665700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1256000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1317700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1286300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1304900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1333800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1327800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1349500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1339200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1104900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4860,8 +5182,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4937,8 +5261,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5014,8 +5344,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5091,8 +5427,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5168,85 +5510,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>301700</v>
+      </c>
+      <c r="F72" s="3">
         <v>299700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>302200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>290500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>275400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>267500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>257800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>245500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>240300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>227300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>205700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>198900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>200400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>207600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>221300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>247600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>268100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>257100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>245800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>240000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>208800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>338400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>323600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>314900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5322,8 +5676,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5399,8 +5759,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5476,85 +5842,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>766100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>780400</v>
+      </c>
+      <c r="F76" s="3">
         <v>793700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>795300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>782900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>765600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>756200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>750500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>735000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>723500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>709300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>685700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>687500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>689300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>687600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>693800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>715900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>736400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>724500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>712000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>722000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>706000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>849100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>841500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>825400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5630,167 +6008,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44842</v>
+      </c>
+      <c r="F80" s="2">
         <v>44758</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44674</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44478</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44394</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44310</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44023</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43939</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43743</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43659</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43575</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43379</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43295</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43211</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43015</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42931</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42847</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>16500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>19100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>42800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>7300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-13700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>17100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>29500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>12100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>34000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-121400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>35500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>14700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>12600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5818,85 +6214,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F83" s="3">
         <v>22000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>28500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>21500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>21800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>21400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>28100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>20900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>48100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>28000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>21000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>21100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>21100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>27400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>19700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>19600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>44900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>25600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>18000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>20000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>46400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>25900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>18700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5972,8 +6376,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6049,8 +6459,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6126,8 +6542,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6203,8 +6625,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6280,85 +6708,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F89" s="3">
         <v>18500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>17200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>70400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>105400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-31800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>82900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>25600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>198200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>129300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>40100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>36200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>90300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>13400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>29100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>38200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>104200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>60300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-18800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>33100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>38400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>75700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6386,85 +6826,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-16500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-29900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-24500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-15100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-17700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-22100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-21400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-30600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-27900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-15100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-18900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-18000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-34600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-21000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-15600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-17500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-37800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6540,8 +6988,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6617,85 +7071,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-26900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-14300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-21700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-13700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-25500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-87200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-18600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-17400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-28100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-20900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-38200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-29400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-247800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-232900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-15700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6723,85 +7189,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-7700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-7200</v>
       </c>
       <c r="I96" s="3">
         <v>-7100</v>
       </c>
       <c r="J96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-6900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-20800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-13900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-6900</v>
-      </c>
       <c r="P96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-6900</v>
       </c>
       <c r="R96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-13000</v>
       </c>
       <c r="U96" s="3">
         <v>-6500</v>
       </c>
       <c r="V96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="X96" s="3">
         <v>-6100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-6100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6877,8 +7351,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6954,8 +7434,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7031,85 +7517,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F100" s="3">
         <v>10100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>22600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-7300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-55800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-90200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>30900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-68200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-19600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-165900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-118300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-13800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-17700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-76300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>76600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-12500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-16000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-75800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-37900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>59600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-13400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>207800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>238300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-62000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7185,81 +7683,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F102" s="3">
         <v>4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>10500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-9600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,376 +665,402 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45122</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45038</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44842</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44758</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44674</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44478</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44394</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44310</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44023</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43939</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43743</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43659</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43575</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43379</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43295</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43211</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43015</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42931</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42847</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2312400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2907400</v>
+      </c>
+      <c r="F8" s="3">
         <v>2309000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2296500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2273900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2763700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2093400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2073300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2106600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2657800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2247100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2060800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5040600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2856500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1998000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1999800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1995900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2542400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1896800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1886700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4281000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2385100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1885500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1868400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>4209900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2353700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1828200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2460700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1967600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1945300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1919600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2313100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1770700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1743800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1772900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2239800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1908900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1736000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4278600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2432900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1711200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1709400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1706900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2164600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1651400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1630600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3672200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2041900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1630700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1606700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3581500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1996300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1568900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>352400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>446700</v>
+      </c>
+      <c r="F10" s="3">
         <v>341400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>351200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>354300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>450600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>322700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>329500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>333700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>418000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>338200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>324800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>762000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>423600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>286800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>290400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>289000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>377800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>245400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>256100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>608800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>343200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>254800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>261700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>628400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>357400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>259300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1064,8 +1090,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1147,8 +1175,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,91 +1264,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
-      </c>
-      <c r="G14" s="3">
-        <v>300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-21000</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>13900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>15100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>33500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>8000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>8400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>4300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>227000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>5600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>5000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>11400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1442,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1424,174 +1476,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2276600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2883100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2277200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2261600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2735500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2060100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2050500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2080600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2627600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2229700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2031800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4984600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2834400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1986400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1984400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1988600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2520200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1908700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1859900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4225500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2359300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1867100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2062300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>4141500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2324100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1803800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F18" s="3">
         <v>8700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>19300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>28200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>33300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>22800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>30200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>17400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>29000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>56000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>22100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>11600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>15400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>7300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>22200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-11900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>26800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>55500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>25800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>18400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-193900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>68400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>29600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>24400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,423 +1687,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-8400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
-      </c>
       <c r="V20" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
       <c r="X20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>300</v>
       </c>
       <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F21" s="3">
         <v>31500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>41900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>33700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>56800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>54800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>44500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>47300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>58600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>38500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>49900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>105200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>51100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>32700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>26500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>20100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>49400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>7900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>46600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>100900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>51500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>36700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-173800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>115100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>55600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>43200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>8700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>11900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>7700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>7100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>15700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>8800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>6200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>6100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>13000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>7300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>4400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>24200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>30400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>22700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>25900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>25500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>45800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>15400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>10100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-19500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>19900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>40300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>17200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>12500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-199900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>55800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>22400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>20100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>8100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>5600</v>
       </c>
       <c r="N24" s="3">
         <v>1900</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="P24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-5500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>10000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>4800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>3800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-76400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>19600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>7400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>7300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2119,174 +2217,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>19300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>22200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>16800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>19500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>20000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>43900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>15400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-14000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>17100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>30300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>12400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>8700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-123500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>36100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>15100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>12800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>19500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>42800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>15000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-13700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>16600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>29600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>12200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>8100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-121400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>35600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>14800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>12600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2368,91 +2484,103 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-200</v>
-      </c>
-      <c r="W29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X29" s="3">
-        <v>25900</v>
       </c>
       <c r="Y29" s="3">
         <v>-100</v>
       </c>
       <c r="Z29" s="3">
+        <v>25900</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-100</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2534,8 +2662,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2617,174 +2751,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>8400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
-      </c>
       <c r="V32" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
       <c r="X32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-300</v>
       </c>
       <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>16500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>19500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>42800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>15000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>7300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-13700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>17100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>29500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>12100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>34000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-121400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>35500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>14700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>12600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2866,179 +3018,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>16500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>19500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>42800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>15000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>7300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-13700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>17100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>29500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>12100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>34000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-121400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>35500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>14700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>12600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45122</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45038</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44842</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44758</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44674</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44478</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44394</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44310</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44023</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43939</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43743</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43659</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43575</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43379</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43295</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43211</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43015</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42931</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42847</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3068,8 +3238,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3099,91 +3271,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F41" s="3">
         <v>29100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>16300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>24600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>26900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>34600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>24200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>23400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>19900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>21400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>18600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>20700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>15900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>17200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>15700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>13200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>22700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>19500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>24400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3265,340 +3445,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>426200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>411000</v>
+      </c>
+      <c r="F43" s="3">
         <v>404000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>430200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>411500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>395500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>361700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>372000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>370700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>346700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>357600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>387100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>374400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>417700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>345300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>374300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>362600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>376700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>346300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>364000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>355100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>330300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>344100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>370500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>349300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>342400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>291600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>576900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>566300</v>
+      </c>
+      <c r="F44" s="3">
         <v>571100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>623500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>591600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>556300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>522300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>550200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>538500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>602600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>541800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>586400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>552400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>516500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>537200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>594700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>572700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>595700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>553800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>592200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>562400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>577500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>597200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>598500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>555600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>539900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>539900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>74600</v>
+      </c>
+      <c r="F45" s="3">
         <v>62200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>73900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>97300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>63800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>62500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>60300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>59600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>66400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>95500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>95100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>97300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>92800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>90000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>56100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>43200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>59000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>82500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>52000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>52400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>60200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>47400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>33400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>32900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>42900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>37700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1085400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1068900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1066400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1146500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1121600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1031900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>957200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1007200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>992900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1039000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1014700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1095500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1058700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1048300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>996700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1048500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>998500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1052800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1001100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1028800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>985800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>985200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1004300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1015600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>960500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>944700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>893500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3680,174 +3890,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>863400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>852400</v>
+      </c>
+      <c r="F48" s="3">
         <v>867300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>820100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>822300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>844900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>860400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>844800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>831300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>841800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>866200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>831400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>829600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>853600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>884800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>890700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>893900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>896700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>579100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>577300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>581800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>582400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>600200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>588400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>621600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>628000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>559700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>287100</v>
+      </c>
+      <c r="F49" s="3">
         <v>288500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>289600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>290500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>290400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>292000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>293200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>294400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>295600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>297200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>300100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>308400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>309700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>311500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>309400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>310200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>323100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>307600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>308900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>309800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>311200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>313100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>314000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>496700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>498900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>322700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3929,8 +4157,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4012,91 +4246,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>87900</v>
+      </c>
+      <c r="F52" s="3">
         <v>84400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>85300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>87900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>97000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>97200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>97500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>90600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>99200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>99200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>94600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>99900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>102700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>82700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>85900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>89400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>86900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>84200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>139100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>133400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>138100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>138200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>115800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>119800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>109000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>154400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4178,91 +4424,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2326900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2296200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2306600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2341500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2322300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2264200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2206800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2242700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2209100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2275600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2277400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2321600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2296500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2314200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2275600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2334500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2292000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2359500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1971900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2054000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2010800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2016900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2055800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2033800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2198500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2180600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1930300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4292,8 +4550,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4323,506 +4583,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>470800</v>
+      </c>
+      <c r="F57" s="3">
         <v>487200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>492900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>503700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>479000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>447500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>490600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>441900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>441800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>464800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>501100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>489400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>509200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>405400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>457000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>406900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>391300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>357800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>411400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>364700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>356500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>377000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>440600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>394300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>370700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>372400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F58" s="3">
         <v>6800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5800</v>
       </c>
       <c r="H58" s="3">
         <v>6300</v>
       </c>
       <c r="I58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>17700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>18000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>18300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>8100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>7800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>7600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>9200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>19400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>19000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>17400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>17400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>155800</v>
+      </c>
+      <c r="F59" s="3">
         <v>211000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>203000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>194300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>176900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>202100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>205800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>182200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>219600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>188100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>182500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>164100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>153400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>146900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>143100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>145800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>98600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>105900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>100400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>108400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>100000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>101500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>101400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>116100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>670500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>634200</v>
+      </c>
+      <c r="F60" s="3">
         <v>705000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>702600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>704300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>661600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>655800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>702000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>648500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>629000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>689600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>694600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>677400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>679400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>565100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>611000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>567800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>555100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>476500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>518100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>478400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>464500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>494600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>560000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>514800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>489500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>506000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>545900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>562400</v>
+      </c>
+      <c r="F61" s="3">
         <v>496800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>512700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>473900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>444300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>399400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>398500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>445600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>522100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>481300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>540900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>552200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>591100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>682200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>686100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>684500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>753100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>679800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>694900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>702900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>733400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>740800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>651500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>641300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>658300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>413700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>342100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>340100</v>
+      </c>
+      <c r="F62" s="3">
         <v>338700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>345700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>350400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>363000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>368700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>376600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>358900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>374000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>371500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>362600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>357700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>358000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>340700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>348200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>352000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>357500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>99700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>104700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>105100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>107000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>98500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>116300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>193400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>191400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>185300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4904,8 +5202,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4987,8 +5291,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5070,91 +5380,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1558500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1536700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1540500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1561100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1528600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1468900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1423900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1477100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1453000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1525000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1542300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1598100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1587300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1628500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1588100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1645300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1604300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1665700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1256000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1317700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1286300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1304900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1333800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1327800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1349500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1339200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1104900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5184,8 +5506,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5267,8 +5591,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5350,8 +5680,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5433,8 +5769,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5516,91 +5858,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>310600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>298700</v>
+      </c>
+      <c r="F72" s="3">
         <v>295000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>301700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>299700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>302200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>290500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>275400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>267500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>257800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>245500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>240300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>227300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>205700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>198900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>200400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>207600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>221300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>247600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>268100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>257100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>245800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>240000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>208800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>338400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>323600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>314900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5682,8 +6036,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5765,8 +6125,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5848,91 +6214,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>768400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>759500</v>
+      </c>
+      <c r="F76" s="3">
         <v>766100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>780400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>793700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>795300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>782900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>765600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>756200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>750500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>735000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>723500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>709300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>685700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>687500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>689300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>687600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>693800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>715900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>736400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>724500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>712000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>722000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>706000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>849100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>841500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>825400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6014,179 +6392,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45122</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45038</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44842</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44758</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44674</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44478</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44394</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44310</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44023</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43939</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43743</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43659</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43575</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43379</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43295</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43211</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43015</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42931</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42847</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>16500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>19500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>42800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>15000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>7300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-13700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>17100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>29500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>12100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>34000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-121400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>35500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>14700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>12600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6216,91 +6612,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F83" s="3">
         <v>21900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>22000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>28500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>21500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>21800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>21400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>20900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>20900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>48100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>21000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>27400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>19700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>19600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>44900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>25600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>18000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>20000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>46400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>25900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>18700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6382,8 +6786,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6465,8 +6875,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6548,8 +6964,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6631,8 +7053,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6714,91 +7142,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>102900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>18500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>70400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>105400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-31800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>82900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>25600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>198200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>129300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>40100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>36200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>90300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>13400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>29100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>38200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>104200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>60300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-18800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>33100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>38400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>75700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6828,91 +7268,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-29900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-24500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-22100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-21400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-30600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-17900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-15100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-15800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-16000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-18900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-18000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-34600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-21000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-37800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6994,8 +7442,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7077,91 +7531,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-55000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-26900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-23900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-14300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-13700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-21800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-15400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-87200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-18600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-17400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-28100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-20900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-29400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-247800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-232900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-15700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7191,8 +7657,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7200,82 +7668,88 @@
         <v>-7300</v>
       </c>
       <c r="E96" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-7500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-7700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-7000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-7200</v>
       </c>
       <c r="K96" s="3">
         <v>-7100</v>
       </c>
       <c r="L96" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-6900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-20800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-13900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-6900</v>
-      </c>
       <c r="R96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-6900</v>
       </c>
       <c r="T96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-13000</v>
       </c>
       <c r="W96" s="3">
         <v>-6500</v>
       </c>
       <c r="X96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-12500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7357,8 +7831,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7440,8 +7920,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7523,91 +8009,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-37800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>14100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>10100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>22600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-55800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-90200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>30900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-68200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-19600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-165900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-118300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-17700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-76300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>76600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-12500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-16000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-75800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-37900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>59600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>207800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>238300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-62000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7689,87 +8187,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F102" s="3">
         <v>10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>10500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>3500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>2600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SPTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,402 +665,415 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45206</v>
+      </c>
+      <c r="E7" s="2">
         <v>45122</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45038</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44842</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44758</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44674</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44478</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44394</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44310</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44107</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44023</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43939</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43743</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43659</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43575</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43379</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43295</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43211</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43015</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42931</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42847</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2264200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2312400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2907400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2309000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2296500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2273900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2763700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2093400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2073300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2106600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2657800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2247100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2060800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5040600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2856500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1998000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1999800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1995900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2542400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1896800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1886700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4281000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2385100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1885500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1868400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4209900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2353700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1828200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1800100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1916700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1960000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2460700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1967600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1945300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1919600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2313100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1770700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1743800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1772900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2239800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1908900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1736000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4278600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2432900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1711200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1709400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1706900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2164600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1651400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1630600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3672200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2041900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1630700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1606700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3581500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1996300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1568900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1544800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>347500</v>
+      </c>
+      <c r="E10" s="3">
         <v>352400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>446700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>341400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>351200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>354300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>450600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>322700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>329500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>333700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>418000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>338200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>324800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>762000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>423600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>286800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>290400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>289000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>377800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>245400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>256100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>608800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>343200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>254800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>261700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>628400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>357400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>259300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>255300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1092,8 +1105,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1181,8 +1195,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1270,97 +1287,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>33500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>227000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>11400</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1448,8 +1471,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1478,186 +1504,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2241200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2276600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2883100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2277200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2261600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2735500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2060100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2050500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2080600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2627600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2229700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2031800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4984600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2834400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1986400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1984400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1988600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2520200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1908700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1859900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4225500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2359300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1867100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2062300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4141500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2324100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1803800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1770200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E18" s="3">
         <v>35800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>33300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>56000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>22100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>22200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>55500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>18400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-193900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>68400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>29600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>24400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1689,32 +1722,33 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>800</v>
       </c>
       <c r="G20" s="3">
         <v>800</v>
       </c>
       <c r="H20" s="3">
+        <v>800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1722,153 +1756,159 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>100</v>
       </c>
       <c r="AE20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E21" s="3">
         <v>58900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>56800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>58600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>49900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>105200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>49400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>100900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>51500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>36700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-173800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>115100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>55600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>43200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1876,266 +1916,275 @@
         <v>9300</v>
       </c>
       <c r="E22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3000</v>
       </c>
       <c r="K22" s="3">
         <v>3000</v>
       </c>
       <c r="L22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>13000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>7300</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>4400</v>
       </c>
       <c r="AE22" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E23" s="3">
         <v>27100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>25500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>19900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-199900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>55800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>22400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>20100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-76400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>19600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2223,186 +2272,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>19500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>30300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>8700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-123500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>36100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>15100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>12800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>16700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>29600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-121400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>35600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>14800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>12600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2490,8 +2548,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2516,8 +2577,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2525,8 +2586,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2534,12 +2595,12 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2547,40 +2608,43 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>25900</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>-100</v>
       </c>
       <c r="AB29" s="3">
         <v>-100</v>
       </c>
       <c r="AC29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
       <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2668,8 +2732,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2757,32 +2824,35 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-800</v>
       </c>
       <c r="G32" s="3">
         <v>-800</v>
       </c>
       <c r="H32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2790,153 +2860,159 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>-100</v>
       </c>
       <c r="AE32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>29500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>12100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>34000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-121400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>35500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>14700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>12600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3024,191 +3100,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>29500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>12100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>34000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-121400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>35500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>14700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>12600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45206</v>
+      </c>
+      <c r="E38" s="2">
         <v>45122</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45038</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44842</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44758</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44674</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44478</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44394</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44310</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44107</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44023</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43939</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43743</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43659</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43575</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43379</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43295</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43211</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43015</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42931</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42847</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3240,8 +3325,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3273,97 +3359,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E41" s="3">
         <v>16900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>23400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>18600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>20700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>17200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>22700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>19500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>24400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3451,364 +3541,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>427300</v>
+      </c>
+      <c r="E43" s="3">
         <v>426200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>411000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>404000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>430200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>411500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>395500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>361700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>372000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>370700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>346700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>357600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>387100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>374400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>417700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>345300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>374300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>362600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>376700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>346300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>364000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>355100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>330300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>344100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>370500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>349300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>342400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>291600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>579600</v>
+      </c>
+      <c r="E44" s="3">
         <v>576900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>566300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>571100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>623500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>591600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>556300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>522300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>550200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>538500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>602600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>541800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>586400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>552400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>516500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>537200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>594700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>572700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>595700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>553800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>592200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>562400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>577500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>597200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>598500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>555600</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>539900</v>
       </c>
       <c r="AD44" s="3">
         <v>539900</v>
       </c>
       <c r="AE44" s="3">
+        <v>539900</v>
+      </c>
+      <c r="AF44" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E45" s="3">
         <v>65400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>74600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>73900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>97300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>63800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>95100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>97300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>92800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>56100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>43200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>82500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>52400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>60200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>47400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>33400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>32900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>42900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>37700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>29600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1088100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1085400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1068900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1066400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1146500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1121600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1031900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>957200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1007200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>992900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1039000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1014700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1095500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1058700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1048300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>996700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1048500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>998500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1052800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1001100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1028800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>985800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>985200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1004300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1015600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>960500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>944700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>893500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>939700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3896,186 +4001,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>867700</v>
+      </c>
+      <c r="E48" s="3">
         <v>863400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>852400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>867300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>820100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>822300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>844900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>860400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>844800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>831300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>841800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>866200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>831400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>829600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>853600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>884800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>890700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>893900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>896700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>579100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>577300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>581800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>582400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>600200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>588400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>621600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>628000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>559700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>570700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>284800</v>
+      </c>
+      <c r="E49" s="3">
         <v>286000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>287100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>288500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>289600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>290500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>290400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>292000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>293200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>294400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>295600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>297200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>300100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>308400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>309700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>311500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>309400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>310200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>323100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>307600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>308900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>309800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>311200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>313100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>314000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>496700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>498900</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>322700</v>
       </c>
       <c r="AE49" s="3">
         <v>322700</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>322700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4163,8 +4277,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4252,97 +4369,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E52" s="3">
         <v>92200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>87900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>84400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>85300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>87900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>99200</v>
       </c>
       <c r="N52" s="3">
         <v>99200</v>
       </c>
       <c r="O52" s="3">
+        <v>99200</v>
+      </c>
+      <c r="P52" s="3">
         <v>94600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>99900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>102700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>82700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>85900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>89400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>84200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>139100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>133400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>138100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>138200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>115800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>119800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>109000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>154400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4430,97 +4553,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2333800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2326900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2296200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2306600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2341500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2322300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2264200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2206800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2242700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2209100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2275600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2277400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2321600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2296500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2314200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2275600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2334500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2292000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2359500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1971900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2054000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2010800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2016900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2055800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2033800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2198500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2180600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1930300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1993900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4552,8 +4681,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4585,542 +4715,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>505800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>470800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>487200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>492900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>503700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>479000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>447500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>490600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>441900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>441800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>464800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>501100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>489400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>509200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>405400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>457000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>406900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>391300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>357800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>411400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>364700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>356500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>377000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>440600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>394300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>370700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>372400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>398900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>8400</v>
       </c>
       <c r="E58" s="3">
         <v>7600</v>
       </c>
       <c r="F58" s="3">
-        <v>6800</v>
+        <v>7600</v>
       </c>
       <c r="G58" s="3">
         <v>6800</v>
       </c>
       <c r="H58" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I58" s="3">
         <v>6300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5700</v>
       </c>
       <c r="L58" s="3">
         <v>5700</v>
       </c>
       <c r="M58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>18000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>18300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>9200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>19400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>19000</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>17400</v>
       </c>
       <c r="AD58" s="3">
         <v>17400</v>
       </c>
       <c r="AE58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="AF58" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>168200</v>
+      </c>
+      <c r="E59" s="3">
         <v>162800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>155800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>211000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>203000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>194300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>176900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>202100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>182200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>219600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>188100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>182500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>164100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>153400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>146900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>143100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>145800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>98600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>105900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>100400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>108400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>100000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>101500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>101400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>116100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>107100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>682400</v>
+      </c>
+      <c r="E60" s="3">
         <v>670500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>634200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>705000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>702600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>704300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>661600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>655800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>702000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>648500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>629000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>689600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>694600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>677400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>679400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>565100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>611000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>567800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>555100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>476500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>518100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>478400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>464500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>494600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>560000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>514800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>489500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>506000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>525100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E61" s="3">
         <v>545900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>562400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>496800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>512700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>473900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>444300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>399400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>398500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>445600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>522100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>481300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>540900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>552200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>591100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>682200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>686100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>684500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>753100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>679800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>694900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>702900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>733400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>740800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>651500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>641300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>658300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>413700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>475400</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>338300</v>
+      </c>
+      <c r="E62" s="3">
         <v>342100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>340100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>338700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>345700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>350400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>363000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>368700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>376600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>358900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>374000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>371500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>362600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>357700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>358000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>340700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>348200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>352000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>357500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>99700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>104700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>105100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>107000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>98500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>116300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>193400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>191400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>185300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>177900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5208,8 +5357,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5297,8 +5449,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5386,97 +5541,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1556500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1558500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1536700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1540500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1561100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1528600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1468900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1423900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1477100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1453000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1525000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1542300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1598100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1587300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1628500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1588100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1645300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1604300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1665700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1256000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1317700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1286300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1304900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1333800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1327800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1349500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1339200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1104900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1178300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5508,8 +5669,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5597,8 +5759,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5686,8 +5851,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5775,8 +5943,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5864,97 +6035,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>314300</v>
+      </c>
+      <c r="E72" s="3">
         <v>310600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>298700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>295000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>301700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>299700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>302200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>290500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>275400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>267500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>257800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>245500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>240300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>227300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>205700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>198900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>200400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>207600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>221300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>247600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>268100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>257100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>245800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>240000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>208800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>338400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>323600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>314900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>307600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6042,8 +6219,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6131,8 +6311,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6220,97 +6403,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>777300</v>
+      </c>
+      <c r="E76" s="3">
         <v>768400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>759500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>766100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>780400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>793700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>795300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>782900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>765600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>756200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>750500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>735000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>723500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>709300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>685700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>687500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>689300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>687600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>693800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>715900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>736400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>724500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>712000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>722000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>706000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>849100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>841500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>825400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>815600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6398,191 +6587,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45206</v>
+      </c>
+      <c r="E80" s="2">
         <v>45122</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45038</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44842</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44758</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44674</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44478</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44394</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44310</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44107</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44023</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43939</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43743</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43659</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43575</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43379</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43295</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43211</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43015</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42931</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42847</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>29500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>12100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>34000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-121400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>35500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>14700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>12600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6614,97 +6812,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E83" s="3">
         <v>22500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>20900</v>
       </c>
       <c r="O83" s="3">
         <v>20900</v>
       </c>
       <c r="P83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>48100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>21100</v>
       </c>
       <c r="T83" s="3">
         <v>21100</v>
       </c>
       <c r="U83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="V83" s="3">
         <v>27400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>44900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>25600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>18000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>20000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>46400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>25900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>18700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>18400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6792,8 +6994,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6881,8 +7086,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6970,8 +7178,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7059,8 +7270,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7148,97 +7362,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E89" s="3">
         <v>52400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>102900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>70400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>105400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>82900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>198200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>129300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>90300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>29100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>104200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>60300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-18800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>33100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>38400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-10200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>75700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7270,97 +7490,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-37800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-32400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-31800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7448,8 +7672,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7537,97 +7764,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-87200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-28100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-20900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-38200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-247800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-232900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-15700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7659,8 +7892,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7668,49 +7902,49 @@
         <v>-7300</v>
       </c>
       <c r="E96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-7300</v>
       </c>
       <c r="G96" s="3">
         <v>-7300</v>
       </c>
       <c r="H96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-6900</v>
       </c>
       <c r="O96" s="3">
         <v>-6900</v>
       </c>
       <c r="P96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
-        <v>-6900</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-6900</v>
@@ -7719,37 +7953,40 @@
         <v>-6900</v>
       </c>
       <c r="V96" s="3">
-        <v>-6500</v>
+        <v>-6900</v>
       </c>
       <c r="W96" s="3">
         <v>-6500</v>
       </c>
       <c r="X96" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-6500</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-6100</v>
       </c>
       <c r="AA96" s="3">
         <v>-6100</v>
       </c>
       <c r="AB96" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-12500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-6300</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>-5600</v>
       </c>
       <c r="AE96" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7837,8 +8074,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7926,8 +8166,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8015,97 +8258,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-34600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>29900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-37800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-55800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-90200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-165900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-118300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-76300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>76600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-75800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-37900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>59600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>207800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>238300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-62000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8193,93 +8442,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>2600</v>
       </c>
     </row>
